--- a/data/landings/cdfw/public/website/raw/2013/by_port/Table18PUB copy.xlsx
+++ b/data/landings/cdfw/public/website/raw/2013/by_port/Table18PUB copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/raw/2013/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/website/raw/2013/by_port/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE47BDD3-CC4F-2143-BD27-8A5F4AE5DDE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46AA6A-E293-CF4B-8371-E61054D665A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="5160" windowWidth="19860" windowHeight="16880" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26700" yWindow="6200" windowWidth="19860" windowHeight="16880" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDFTables.com" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C56" s="8">
         <v>14</v>
